--- a/teaching/traditional_assets/database/data/italy/italy_insurance_general.xlsx
+++ b/teaching/traditional_assets/database/data/italy/italy_insurance_general.xlsx
@@ -591,124 +591,124 @@
         </is>
       </c>
       <c r="D2">
-        <v>-0.0131</v>
+        <v>-0.035</v>
       </c>
       <c r="E2">
-        <v>0.07719999999999999</v>
+        <v>0.06367500000000001</v>
       </c>
       <c r="F2">
-        <v>0.0384</v>
+        <v>0.04650000000000001</v>
       </c>
       <c r="G2">
-        <v>0.07836897426603844</v>
+        <v>0.08458711825393564</v>
       </c>
       <c r="H2">
-        <v>0.07836897426603844</v>
+        <v>0.08458711825393564</v>
       </c>
       <c r="I2">
-        <v>0.06746969513914058</v>
+        <v>0.06586801011744306</v>
       </c>
       <c r="J2">
-        <v>0.0495536229908608</v>
+        <v>0.04796928613329151</v>
       </c>
       <c r="K2">
-        <v>4523.190000000001</v>
+        <v>3648.94</v>
       </c>
       <c r="L2">
-        <v>0.0364317989609762</v>
+        <v>0.02999662953676682</v>
       </c>
       <c r="M2">
-        <v>2132.76</v>
+        <v>1625.856</v>
       </c>
       <c r="N2">
-        <v>0.04763038414553803</v>
+        <v>0.04220097854723372</v>
       </c>
       <c r="O2">
-        <v>0.4715167835089837</v>
+        <v>0.4455693982362001</v>
       </c>
       <c r="P2">
-        <v>2124.53</v>
+        <v>1619.706</v>
       </c>
       <c r="Q2">
-        <v>0.04744658565835815</v>
+        <v>0.04204134816295278</v>
       </c>
       <c r="R2">
-        <v>0.4696972711736628</v>
+        <v>0.4438839772646303</v>
       </c>
       <c r="S2">
-        <v>8.23</v>
+        <v>6.150000000000009</v>
       </c>
       <c r="T2">
-        <v>0.003858849565820814</v>
+        <v>0.003782622815304682</v>
       </c>
       <c r="U2">
-        <v>8062</v>
+        <v>10357.78</v>
       </c>
       <c r="V2">
-        <v>0.180046586105013</v>
+        <v>0.2688481953979728</v>
       </c>
       <c r="W2">
-        <v>0.1143125609946343</v>
+        <v>0.1324582338902148</v>
       </c>
       <c r="X2">
-        <v>0.06955947916692753</v>
+        <v>0.06810148051510871</v>
       </c>
       <c r="Y2">
-        <v>0.04475308182770675</v>
+        <v>0.06435675337510609</v>
       </c>
       <c r="Z2">
-        <v>2.132298513204605</v>
+        <v>2.070885254104113</v>
       </c>
       <c r="AA2">
-        <v>0.1280424026461064</v>
+        <v>0.1242793905125435</v>
       </c>
       <c r="AB2">
-        <v>0.06155483492311477</v>
+        <v>0.05718289323928824</v>
       </c>
       <c r="AC2">
-        <v>0.06757325644069787</v>
+        <v>0.06426918204249167</v>
       </c>
       <c r="AD2">
-        <v>32634.1</v>
+        <v>31782.8</v>
       </c>
       <c r="AE2">
-        <v>0</v>
+        <v>6.479546318194497</v>
       </c>
       <c r="AF2">
-        <v>32634.1</v>
+        <v>31789.27954631819</v>
       </c>
       <c r="AG2">
-        <v>24572.1</v>
+        <v>21431.49954631819</v>
       </c>
       <c r="AH2">
-        <v>0.4215671076869815</v>
+        <v>0.4520931112678351</v>
       </c>
       <c r="AI2">
-        <v>0.4046982753809923</v>
+        <v>0.4012076602530734</v>
       </c>
       <c r="AJ2">
-        <v>0.3543231808782772</v>
+        <v>0.3574418711178336</v>
       </c>
       <c r="AK2">
-        <v>0.3385701353475868</v>
+        <v>0.311159728432836</v>
       </c>
       <c r="AL2">
-        <v>1482.37</v>
+        <v>1333.16</v>
       </c>
       <c r="AM2">
-        <v>1482.338</v>
+        <v>1333.13</v>
       </c>
       <c r="AN2">
-        <v>3.35928396434233</v>
+        <v>3.098206844113877</v>
       </c>
       <c r="AO2">
-        <v>5.65088338269123</v>
+        <v>6.006090791802934</v>
       </c>
       <c r="AP2">
-        <v>2.529399048854302</v>
+        <v>2.08915572492123</v>
       </c>
       <c r="AQ2">
-        <v>5.651005371244613</v>
+        <v>6.006225949457292</v>
       </c>
     </row>
     <row r="3">
@@ -728,46 +728,46 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.0626</v>
+        <v>0.08070000000000001</v>
       </c>
       <c r="E3">
-        <v>0.131</v>
+        <v>0.136</v>
       </c>
       <c r="G3">
-        <v>0.1490683229813665</v>
+        <v>0.141280353200883</v>
       </c>
       <c r="H3">
-        <v>0.1490683229813665</v>
+        <v>0.141280353200883</v>
       </c>
       <c r="I3">
-        <v>0.1354037267080745</v>
+        <v>0.1247240618101545</v>
       </c>
       <c r="J3">
-        <v>0.09221706440013076</v>
+        <v>0.0858372062509927</v>
       </c>
       <c r="K3">
-        <v>6.17</v>
+        <v>6.14</v>
       </c>
       <c r="L3">
-        <v>0.07664596273291925</v>
+        <v>0.06777041942604857</v>
       </c>
       <c r="M3">
-        <v>3.23</v>
+        <v>3.64</v>
       </c>
       <c r="N3">
-        <v>0.02741935483870968</v>
+        <v>0.03244206773618538</v>
       </c>
       <c r="O3">
-        <v>0.5235008103727715</v>
+        <v>0.5928338762214984</v>
       </c>
       <c r="P3">
-        <v>3.23</v>
+        <v>3.64</v>
       </c>
       <c r="Q3">
-        <v>0.02741935483870968</v>
+        <v>0.03244206773618538</v>
       </c>
       <c r="R3">
-        <v>0.5235008103727715</v>
+        <v>0.5928338762214984</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -776,73 +776,73 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>7.82</v>
+        <v>9.779999999999999</v>
       </c>
       <c r="V3">
-        <v>0.06638370118845502</v>
+        <v>0.08716577540106951</v>
       </c>
       <c r="W3">
-        <v>0.2164912280701754</v>
+        <v>0.2053511705685619</v>
       </c>
       <c r="X3">
-        <v>0.06893587587751719</v>
+        <v>0.06722520694627208</v>
       </c>
       <c r="Y3">
-        <v>0.1475553521926583</v>
+        <v>0.1381259636222898</v>
       </c>
       <c r="Z3">
-        <v>6.09848484848485</v>
+        <v>5.367298578199056</v>
       </c>
       <c r="AA3">
-        <v>0.5623843700159491</v>
+        <v>0.4607139150675322</v>
       </c>
       <c r="AB3">
-        <v>0.06155483492311477</v>
+        <v>0.05705977759072785</v>
       </c>
       <c r="AC3">
-        <v>0.5008295350928343</v>
+        <v>0.4036541374768044</v>
       </c>
       <c r="AD3">
-        <v>40.3</v>
+        <v>41.2</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>40.3</v>
+        <v>41.2</v>
       </c>
       <c r="AG3">
-        <v>32.48</v>
+        <v>31.42</v>
       </c>
       <c r="AH3">
-        <v>0.2549019607843137</v>
+        <v>0.2685788787483703</v>
       </c>
       <c r="AI3">
-        <v>0.5684062059238363</v>
+        <v>0.4051130776794494</v>
       </c>
       <c r="AJ3">
-        <v>0.2161298908703753</v>
+        <v>0.2187717588079655</v>
       </c>
       <c r="AK3">
-        <v>0.5149017121116043</v>
+        <v>0.3418189730200174</v>
       </c>
       <c r="AL3">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AM3">
-        <v>1.178</v>
+        <v>1.17</v>
       </c>
       <c r="AN3">
-        <v>3.358333333333333</v>
+        <v>3.21875</v>
       </c>
       <c r="AO3">
-        <v>9.008264462809917</v>
+        <v>9.416666666666668</v>
       </c>
       <c r="AP3">
-        <v>2.706666666666667</v>
+        <v>2.4546875</v>
       </c>
       <c r="AQ3">
-        <v>9.252971137521223</v>
+        <v>9.658119658119659</v>
       </c>
     </row>
     <row r="4">
@@ -853,7 +853,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Net Insurance S.p.A. (BIT:NET)</t>
+          <t>UnipolSai Assicurazioni S.p.A. (BIT:US)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -862,121 +862,121 @@
         </is>
       </c>
       <c r="D4">
-        <v>-0.181</v>
-      </c>
-      <c r="F4">
-        <v>0.237</v>
+        <v>-0.035</v>
+      </c>
+      <c r="E4">
+        <v>-0.00865</v>
       </c>
       <c r="G4">
-        <v>0.4597701149425287</v>
+        <v>0.109928359638299</v>
       </c>
       <c r="H4">
-        <v>0.4597701149425287</v>
+        <v>0.109928359638299</v>
       </c>
       <c r="I4">
-        <v>0.4597701149425287</v>
+        <v>0.08820297488597088</v>
       </c>
       <c r="J4">
-        <v>0.3615363050182226</v>
+        <v>0.06368377618976366</v>
       </c>
       <c r="K4">
-        <v>3.22</v>
+        <v>910.2</v>
       </c>
       <c r="L4">
-        <v>0.1233716475095785</v>
+        <v>0.05587579881765779</v>
       </c>
       <c r="M4">
-        <v>8.23</v>
+        <v>509.2</v>
       </c>
       <c r="N4">
-        <v>0.09154616240266963</v>
+        <v>0.06782099094299414</v>
       </c>
       <c r="O4">
-        <v>2.555900621118012</v>
+        <v>0.5594374862667545</v>
       </c>
       <c r="P4">
-        <v>-0</v>
+        <v>509.2</v>
       </c>
       <c r="Q4">
-        <v>-0</v>
+        <v>0.06782099094299414</v>
       </c>
       <c r="R4">
-        <v>-0</v>
+        <v>0.5594374862667545</v>
       </c>
       <c r="S4">
-        <v>8.23</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>8.68</v>
+        <v>718.4</v>
       </c>
       <c r="V4">
-        <v>0.09655172413793102</v>
+        <v>0.09568460309003729</v>
       </c>
       <c r="W4">
-        <v>0.06531440162271807</v>
+        <v>0.1324582338902148</v>
       </c>
       <c r="X4">
-        <v>0.0642456678322143</v>
+        <v>0.06810148051510871</v>
       </c>
       <c r="Y4">
-        <v>0.001068733790503762</v>
+        <v>0.06435675337510609</v>
       </c>
       <c r="Z4">
-        <v>0.4611307420494699</v>
+        <v>1.952920443101712</v>
       </c>
       <c r="AA4">
-        <v>0.1667155046108765</v>
+        <v>0.1243693484149035</v>
       </c>
       <c r="AB4">
-        <v>0.05972974604391203</v>
+        <v>0.05718289323928824</v>
       </c>
       <c r="AC4">
-        <v>0.1069857585669645</v>
+        <v>0.06718645517561526</v>
       </c>
       <c r="AD4">
-        <v>16.7</v>
+        <v>2948.1</v>
       </c>
       <c r="AE4">
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>16.7</v>
+        <v>2948.1</v>
       </c>
       <c r="AG4">
-        <v>8.02</v>
+        <v>2229.7</v>
       </c>
       <c r="AH4">
-        <v>0.1566604127579737</v>
+        <v>0.2819502491368674</v>
       </c>
       <c r="AI4">
-        <v>0.1941860465116279</v>
+        <v>0.2878244993995723</v>
       </c>
       <c r="AJ4">
-        <v>0.08190359477124183</v>
+        <v>0.2289760415703913</v>
       </c>
       <c r="AK4">
-        <v>0.103724780134506</v>
+        <v>0.2341064435181588</v>
       </c>
       <c r="AL4">
-        <v>2.86</v>
+        <v>115.2</v>
       </c>
       <c r="AM4">
-        <v>2.86</v>
+        <v>115.2</v>
       </c>
       <c r="AN4">
-        <v>1.380165289256198</v>
+        <v>1.383824633871573</v>
       </c>
       <c r="AO4">
-        <v>4.195804195804196</v>
+        <v>12.47222222222222</v>
       </c>
       <c r="AP4">
-        <v>0.6628099173553719</v>
+        <v>1.046610965076981</v>
       </c>
       <c r="AQ4">
-        <v>4.195804195804196</v>
+        <v>12.47222222222222</v>
       </c>
     </row>
     <row r="5">
@@ -987,7 +987,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>UnipolSai Assicurazioni S.p.A. (BIT:US)</t>
+          <t>Unipol Gruppo S.p.A. (BIT:UNI)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -996,124 +996,124 @@
         </is>
       </c>
       <c r="D5">
-        <v>-0.0106</v>
+        <v>-0.0596</v>
       </c>
       <c r="E5">
-        <v>0.064</v>
+        <v>0.172</v>
       </c>
       <c r="F5">
-        <v>0.005</v>
+        <v>-0.03</v>
       </c>
       <c r="G5">
-        <v>0.1088525802927934</v>
+        <v>0.1385443014995098</v>
       </c>
       <c r="H5">
-        <v>0.1088525802927934</v>
+        <v>0.1385443014995098</v>
       </c>
       <c r="I5">
-        <v>0.07597833814001606</v>
+        <v>0.09035787333438222</v>
       </c>
       <c r="J5">
-        <v>0.05481558433735628</v>
+        <v>0.07328358289962607</v>
       </c>
       <c r="K5">
-        <v>741.4</v>
+        <v>855.5</v>
       </c>
       <c r="L5">
-        <v>0.04284979453598654</v>
+        <v>0.05176879228339405</v>
       </c>
       <c r="M5">
-        <v>458.8</v>
+        <v>226.906</v>
       </c>
       <c r="N5">
-        <v>0.05679904922254135</v>
+        <v>0.06622479059043283</v>
       </c>
       <c r="O5">
-        <v>0.6188292419746426</v>
+        <v>0.2652320280537697</v>
       </c>
       <c r="P5">
-        <v>458.8</v>
+        <v>225.666</v>
       </c>
       <c r="Q5">
-        <v>0.05679904922254135</v>
+        <v>0.0658628841607565</v>
       </c>
       <c r="R5">
-        <v>0.6188292419746426</v>
+        <v>0.2637825832846289</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>1.240000000000009</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <v>0.005464818030373851</v>
       </c>
       <c r="U5">
-        <v>933</v>
+        <v>1018.3</v>
       </c>
       <c r="V5">
-        <v>0.1155046053283153</v>
+        <v>0.2972010623704871</v>
       </c>
       <c r="W5">
-        <v>0.1147251794998762</v>
+        <v>0.123411376062088</v>
       </c>
       <c r="X5">
-        <v>0.06955947916692753</v>
+        <v>0.1039150320493368</v>
       </c>
       <c r="Y5">
-        <v>0.04516570033294867</v>
+        <v>0.0194963440127512</v>
       </c>
       <c r="Z5">
-        <v>2.335875904525326</v>
+        <v>1.695869464826312</v>
       </c>
       <c r="AA5">
-        <v>0.1280424026461064</v>
+        <v>0.1242793905125435</v>
       </c>
       <c r="AB5">
-        <v>0.06046914620540855</v>
+        <v>0.06001020847005187</v>
       </c>
       <c r="AC5">
-        <v>0.06757325644069787</v>
+        <v>0.06426918204249167</v>
       </c>
       <c r="AD5">
-        <v>2931.3</v>
+        <v>4910.6</v>
       </c>
       <c r="AE5">
         <v>0</v>
       </c>
       <c r="AF5">
-        <v>2931.3</v>
+        <v>4910.6</v>
       </c>
       <c r="AG5">
-        <v>1998.3</v>
+        <v>3892.3</v>
       </c>
       <c r="AH5">
-        <v>0.2662663844707464</v>
+        <v>0.5890198994830212</v>
       </c>
       <c r="AI5">
-        <v>0.2904261327045209</v>
+        <v>0.3548429054542301</v>
       </c>
       <c r="AJ5">
-        <v>0.1983247154100378</v>
+        <v>0.5318366900773372</v>
       </c>
       <c r="AK5">
-        <v>0.2181526402550191</v>
+        <v>0.3035997035997036</v>
       </c>
       <c r="AL5">
-        <v>108.3</v>
+        <v>184.2</v>
       </c>
       <c r="AM5">
-        <v>108.3</v>
+        <v>184.2</v>
       </c>
       <c r="AN5">
-        <v>1.913131444981073</v>
+        <v>2.288897175351916</v>
       </c>
       <c r="AO5">
-        <v>12.13850415512465</v>
+        <v>8.106406080347449</v>
       </c>
       <c r="AP5">
-        <v>1.304203106644041</v>
+        <v>1.814253752214039</v>
       </c>
       <c r="AQ5">
-        <v>12.13850415512465</v>
+        <v>8.106406080347449</v>
       </c>
     </row>
     <row r="6">
@@ -1124,7 +1124,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Unipol Gruppo S.p.A. (BIT:UNI)</t>
+          <t>Assicurazioni Generali S.p.A. (BIT:G)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1133,121 +1133,124 @@
         </is>
       </c>
       <c r="D6">
-        <v>-0.06469999999999999</v>
+        <v>-0.0259</v>
+      </c>
+      <c r="E6">
+        <v>-0.0274</v>
       </c>
       <c r="F6">
-        <v>-0.015</v>
+        <v>0.04650000000000001</v>
       </c>
       <c r="G6">
-        <v>0.09960620538602086</v>
+        <v>0.0696968364612469</v>
       </c>
       <c r="H6">
-        <v>0.09960620538602086</v>
+        <v>0.0696968364612469</v>
       </c>
       <c r="I6">
-        <v>0.09337017828568833</v>
+        <v>0.05708973927931564</v>
       </c>
       <c r="J6">
-        <v>0.0751004467804868</v>
+        <v>0.03705989387268633</v>
       </c>
       <c r="K6">
-        <v>621.5</v>
+        <v>1862.5</v>
       </c>
       <c r="L6">
-        <v>0.03526561276484674</v>
+        <v>0.02099743746709462</v>
       </c>
       <c r="M6">
-        <v>146.8</v>
+        <v>883.45</v>
       </c>
       <c r="N6">
-        <v>0.03573428105450208</v>
+        <v>0.03226424948049245</v>
       </c>
       <c r="O6">
-        <v>0.2362027353177796</v>
+        <v>0.4743355704697987</v>
       </c>
       <c r="P6">
-        <v>146.8</v>
+        <v>881.2</v>
       </c>
       <c r="Q6">
-        <v>0.03573428105450208</v>
+        <v>0.03218207781109281</v>
       </c>
       <c r="R6">
-        <v>0.2362027353177796</v>
+        <v>0.4731275167785235</v>
       </c>
       <c r="S6">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="T6">
-        <v>0</v>
+        <v>0.002546833437093214</v>
       </c>
       <c r="U6">
-        <v>208.8</v>
+        <v>8605.700000000001</v>
       </c>
       <c r="V6">
-        <v>0.05082641610476862</v>
+        <v>0.3142865490455304</v>
       </c>
       <c r="W6">
-        <v>0.09952758427416127</v>
+        <v>0.06048648999740192</v>
       </c>
       <c r="X6">
-        <v>0.09387828974979284</v>
+        <v>0.08459338534066904</v>
       </c>
       <c r="Y6">
-        <v>0.005649294524368423</v>
+        <v>-0.02410689534326712</v>
       </c>
       <c r="Z6">
-        <v>1.564327433471214</v>
+        <v>2.18687904128203</v>
       </c>
       <c r="AA6">
-        <v>0.1174816891646604</v>
+        <v>0.08104550518231408</v>
       </c>
       <c r="AB6">
-        <v>0.06231520944006216</v>
+        <v>0.05887532582646126</v>
       </c>
       <c r="AC6">
-        <v>0.05516647972459823</v>
+        <v>0.02217017935585282</v>
       </c>
       <c r="AD6">
-        <v>4821</v>
+        <v>23865.6</v>
       </c>
       <c r="AE6">
-        <v>0</v>
+        <v>6.479546318194497</v>
       </c>
       <c r="AF6">
-        <v>4821</v>
+        <v>23872.07954631819</v>
       </c>
       <c r="AG6">
-        <v>4612.2</v>
+        <v>15266.37954631819</v>
       </c>
       <c r="AH6">
-        <v>0.5399200367338254</v>
+        <v>0.4657623253860707</v>
       </c>
       <c r="AI6">
-        <v>0.3595292784058706</v>
+        <v>0.4344131464749822</v>
       </c>
       <c r="AJ6">
-        <v>0.5289038221162117</v>
+        <v>0.3579617114936688</v>
       </c>
       <c r="AK6">
-        <v>0.3493985030756643</v>
+        <v>0.329394613730631</v>
       </c>
       <c r="AL6">
-        <v>192.3</v>
+        <v>1029.7</v>
       </c>
       <c r="AM6">
-        <v>192.3</v>
+        <v>1029.7</v>
       </c>
       <c r="AN6">
-        <v>2.675509184749431</v>
+        <v>4.002864748001134</v>
       </c>
       <c r="AO6">
-        <v>8.556942277691107</v>
+        <v>4.912595901718947</v>
       </c>
       <c r="AP6">
-        <v>2.559631500083245</v>
+        <v>2.560557979500312</v>
       </c>
       <c r="AQ6">
-        <v>8.556942277691107</v>
+        <v>4.912595901718947</v>
       </c>
     </row>
     <row r="7">
@@ -1258,7 +1261,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Assicurazioni Generali S.p.A. (BIT:G)</t>
+          <t>Net Insurance S.p.A. (BIT:NET)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1267,124 +1270,121 @@
         </is>
       </c>
       <c r="D7">
-        <v>-0.0131</v>
-      </c>
-      <c r="E7">
-        <v>0.07719999999999999</v>
+        <v>-0.115</v>
       </c>
       <c r="F7">
-        <v>0.0718</v>
+        <v>0.277</v>
       </c>
       <c r="G7">
-        <v>0.06807581009103181</v>
+        <v>0.3789473684210526</v>
       </c>
       <c r="H7">
-        <v>0.06807581009103181</v>
+        <v>0.3789473684210526</v>
       </c>
       <c r="I7">
-        <v>0.06051993487629975</v>
+        <v>0.1915789473684211</v>
       </c>
       <c r="J7">
-        <v>0.04109908259362756</v>
+        <v>0.1476881091617934</v>
       </c>
       <c r="K7">
-        <v>3150.9</v>
+        <v>14.6</v>
       </c>
       <c r="L7">
-        <v>0.0353546290675664</v>
+        <v>0.3842105263157894</v>
       </c>
       <c r="M7">
-        <v>1515.7</v>
+        <v>2.66</v>
       </c>
       <c r="N7">
-        <v>0.04680412180126544</v>
+        <v>0.02706002034587996</v>
       </c>
       <c r="O7">
-        <v>0.4810371639848932</v>
+        <v>0.1821917808219178</v>
       </c>
       <c r="P7">
-        <v>1515.7</v>
+        <v>-0</v>
       </c>
       <c r="Q7">
-        <v>0.04680412180126544</v>
+        <v>-0</v>
       </c>
       <c r="R7">
-        <v>0.4810371639848932</v>
+        <v>-0</v>
       </c>
       <c r="S7">
-        <v>0</v>
+        <v>2.66</v>
       </c>
       <c r="T7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U7">
-        <v>6903.7</v>
+        <v>5.6</v>
       </c>
       <c r="V7">
-        <v>0.2131830940683488</v>
+        <v>0.05696846388606307</v>
       </c>
       <c r="W7">
-        <v>0.1143125609946343</v>
+        <v>0.2106782106782107</v>
       </c>
       <c r="X7">
-        <v>0.08166982422134202</v>
+        <v>0.06064415318742246</v>
       </c>
       <c r="Y7">
-        <v>0.03264273677329227</v>
+        <v>0.1500340574907882</v>
       </c>
       <c r="Z7">
-        <v>2.257236640486689</v>
+        <v>0.4914640455250906</v>
       </c>
       <c r="AA7">
-        <v>0.09277035512072483</v>
+        <v>0.07258339560460617</v>
       </c>
       <c r="AB7">
-        <v>0.06160022929996375</v>
+        <v>0.055964787645217</v>
       </c>
       <c r="AC7">
-        <v>0.03117012582076108</v>
+        <v>0.01661860795938917</v>
       </c>
       <c r="AD7">
-        <v>24824.8</v>
+        <v>17.3</v>
       </c>
       <c r="AE7">
         <v>0</v>
       </c>
       <c r="AF7">
-        <v>24824.8</v>
+        <v>17.3</v>
       </c>
       <c r="AG7">
-        <v>17921.1</v>
+        <v>11.7</v>
       </c>
       <c r="AH7">
-        <v>0.4339339995490197</v>
+        <v>0.1496539792387543</v>
       </c>
       <c r="AI7">
-        <v>0.4356840865653777</v>
+        <v>0.1759918616480163</v>
       </c>
       <c r="AJ7">
-        <v>0.3562488818208925</v>
+        <v>0.1063636363636364</v>
       </c>
       <c r="AK7">
-        <v>0.3578837428507525</v>
+        <v>0.1262135922330097</v>
       </c>
       <c r="AL7">
-        <v>1177.7</v>
+        <v>2.86</v>
       </c>
       <c r="AM7">
-        <v>1177.7</v>
+        <v>2.86</v>
       </c>
       <c r="AN7">
-        <v>3.905481089925115</v>
+        <v>2.240932642487047</v>
       </c>
       <c r="AO7">
-        <v>4.579859047295575</v>
+        <v>2.545454545454546</v>
       </c>
       <c r="AP7">
-        <v>2.819378893713423</v>
+        <v>1.515544041450777</v>
       </c>
       <c r="AQ7">
-        <v>4.579859047295575</v>
+        <v>2.545454545454546</v>
       </c>
     </row>
   </sheetData>
